--- a/dsv.xlsx
+++ b/dsv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hbecker.sharepoint.com/sites/0513_HEWI/Shared Documents/Logistik_513/Heinrich Wilke-0513 ̸ Logistik ̸ Transport ̸ Landfrachten ̸ 2024/CK/frachtenrechner 12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christineklein/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{DB2F298F-8FBE-684F-AD41-E91C79F1EFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A3757E-87E3-9948-888B-C1AE50FD672B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F2F727-4407-C741-8C5E-E7ADCEA30450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-38240" yWindow="1400" windowWidth="38080" windowHeight="20780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zonen" sheetId="39" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="55">
   <si>
     <t>DE</t>
   </si>
@@ -89,108 +89,6 @@
   </si>
   <si>
     <t>G037</t>
-  </si>
-  <si>
-    <t>G038</t>
-  </si>
-  <si>
-    <t>G039</t>
-  </si>
-  <si>
-    <t>G040</t>
-  </si>
-  <si>
-    <t>G041</t>
-  </si>
-  <si>
-    <t>G042</t>
-  </si>
-  <si>
-    <t>G043</t>
-  </si>
-  <si>
-    <t>G044</t>
-  </si>
-  <si>
-    <t>G045</t>
-  </si>
-  <si>
-    <t>G046</t>
-  </si>
-  <si>
-    <t>G047</t>
-  </si>
-  <si>
-    <t>G048</t>
-  </si>
-  <si>
-    <t>G049</t>
-  </si>
-  <si>
-    <t>G050</t>
-  </si>
-  <si>
-    <t>G051</t>
-  </si>
-  <si>
-    <t>G052</t>
-  </si>
-  <si>
-    <t>G053</t>
-  </si>
-  <si>
-    <t>G054</t>
-  </si>
-  <si>
-    <t>G055</t>
-  </si>
-  <si>
-    <t>G056</t>
-  </si>
-  <si>
-    <t>G057</t>
-  </si>
-  <si>
-    <t>G058</t>
-  </si>
-  <si>
-    <t>G059</t>
-  </si>
-  <si>
-    <t>G060</t>
-  </si>
-  <si>
-    <t>G061</t>
-  </si>
-  <si>
-    <t>G062</t>
-  </si>
-  <si>
-    <t>G063</t>
-  </si>
-  <si>
-    <t>G064</t>
-  </si>
-  <si>
-    <t>G065</t>
-  </si>
-  <si>
-    <t>G066</t>
-  </si>
-  <si>
-    <t>G067</t>
-  </si>
-  <si>
-    <t>G068</t>
-  </si>
-  <si>
-    <t>G069</t>
-  </si>
-  <si>
-    <t>G070</t>
-  </si>
-  <si>
-    <t>G071</t>
   </si>
   <si>
     <t>G001</t>
@@ -342,7 +240,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Zone&quot;\ #"/>
     <numFmt numFmtId="165" formatCode="00"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -462,7 +360,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -1466,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D86534-7C64-4111-B6C3-C8AB47E3C115}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
@@ -1480,7 +1378,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1497,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -1505,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -1513,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
@@ -1521,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1535,7 +1433,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
@@ -1543,7 +1441,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
@@ -1551,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
@@ -1559,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
@@ -1567,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1581,7 +1479,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
@@ -1589,7 +1487,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
@@ -1597,7 +1495,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
@@ -1605,7 +1503,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
@@ -1613,7 +1511,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
@@ -1621,7 +1519,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
@@ -1629,7 +1527,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
@@ -1637,7 +1535,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
@@ -1645,7 +1543,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
@@ -1653,7 +1551,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
@@ -1661,7 +1559,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
@@ -1669,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
@@ -1677,7 +1575,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
@@ -1685,7 +1583,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
@@ -1693,7 +1591,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
@@ -1701,7 +1599,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
@@ -1709,7 +1607,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
@@ -1717,7 +1615,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
@@ -1725,7 +1623,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
@@ -1733,7 +1631,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
@@ -1741,7 +1639,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
@@ -1749,7 +1647,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
@@ -1757,7 +1655,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
@@ -1765,7 +1663,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
@@ -1773,7 +1671,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
@@ -1781,7 +1679,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
@@ -1789,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
@@ -1797,7 +1695,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
@@ -1805,7 +1703,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15">
@@ -1813,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
@@ -1821,7 +1719,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1835,7 +1733,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
@@ -1843,7 +1741,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
@@ -1851,7 +1749,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15">
@@ -1859,7 +1757,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15">
@@ -1867,7 +1765,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
@@ -1875,7 +1773,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
@@ -1883,7 +1781,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
@@ -1891,7 +1789,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15">
@@ -1899,7 +1797,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15">
@@ -1907,7 +1805,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15">
@@ -1915,7 +1813,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
@@ -1923,7 +1821,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
@@ -1931,7 +1829,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
@@ -1939,7 +1837,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
@@ -1947,7 +1845,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15">
@@ -1955,7 +1853,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15">
@@ -1963,7 +1861,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15">
@@ -1971,7 +1869,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1985,7 +1883,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15">
@@ -1993,7 +1891,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15">
@@ -2001,7 +1899,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15">
@@ -2009,7 +1907,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15">
@@ -2017,7 +1915,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15">
@@ -2025,7 +1923,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15">
@@ -2033,7 +1931,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15">
@@ -2041,7 +1939,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15">
@@ -2049,7 +1947,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15">
@@ -2057,7 +1955,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15">
@@ -2065,7 +1963,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15">
@@ -2073,7 +1971,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15">
@@ -2081,7 +1979,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15">
@@ -2089,7 +1987,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15">
@@ -2097,7 +1995,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15">
@@ -2105,7 +2003,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15">
@@ -2113,7 +2011,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15">
@@ -2121,7 +2019,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15">
@@ -2129,7 +2027,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15">
@@ -2137,7 +2035,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15">
@@ -2145,7 +2043,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15">
@@ -2153,7 +2051,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15">
@@ -2161,7 +2059,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15">
@@ -2169,7 +2067,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15">
@@ -2177,7 +2075,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15">
@@ -2185,7 +2083,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15">
@@ -2193,7 +2091,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15">
@@ -2201,7 +2099,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15">
@@ -2209,7 +2107,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15">
@@ -2217,7 +2115,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15">
@@ -2225,7 +2123,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15">
@@ -2233,7 +2131,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15">
@@ -2241,7 +2139,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15">
@@ -2249,7 +2147,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15">
@@ -2257,7 +2155,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15">
@@ -2265,7 +2163,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15">
@@ -2273,7 +2171,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2308,40 +2206,40 @@
         <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B2" s="10">
         <v>32.5</v>
@@ -2373,7 +2271,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="7" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10">
         <v>38.700000000000003</v>
@@ -2405,7 +2303,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10">
         <v>34.299999999999997</v>
@@ -2437,7 +2335,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B5" s="10">
         <v>31.24</v>
@@ -2469,7 +2367,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B6" s="10">
         <v>24.16</v>
@@ -2501,7 +2399,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10">
         <v>23.64</v>
@@ -2533,7 +2431,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B8" s="10">
         <v>23.09</v>
@@ -2565,7 +2463,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B9" s="10">
         <v>22.82</v>
@@ -2597,7 +2495,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B10" s="10">
         <v>22.51</v>
@@ -2629,7 +2527,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B11" s="10">
         <v>22.21</v>
@@ -2661,7 +2559,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B12" s="10">
         <v>21.94</v>
@@ -2693,7 +2591,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B13" s="10">
         <v>20.23</v>
@@ -2725,7 +2623,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B14" s="10">
         <v>18.510000000000002</v>
@@ -2757,7 +2655,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B15" s="10">
         <v>16.670000000000002</v>
@@ -2789,7 +2687,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B16" s="10">
         <v>14.56</v>
@@ -2821,7 +2719,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B17" s="10">
         <v>13.08</v>
@@ -2853,7 +2751,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B18" s="10">
         <v>11.63</v>
@@ -2885,7 +2783,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B19" s="10">
         <v>9.5500000000000007</v>
@@ -2917,7 +2815,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="7" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B20" s="10">
         <v>8.75</v>
@@ -2949,7 +2847,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="7" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B21" s="10">
         <v>8.08</v>
@@ -2981,7 +2879,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B22" s="10">
         <v>7.76</v>
@@ -3013,7 +2911,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B23" s="10">
         <v>7.23</v>
@@ -3045,7 +2943,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="7" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B24" s="10">
         <v>6.98</v>
@@ -3077,7 +2975,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B25" s="10">
         <v>6.73</v>
@@ -3109,7 +3007,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B26" s="10">
         <v>6.51</v>
@@ -3141,7 +3039,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B27" s="10">
         <v>6.26</v>
@@ -3173,7 +3071,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B28" s="10">
         <v>6.04</v>
@@ -3205,7 +3103,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="7" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B29" s="10">
         <v>5.8</v>
@@ -3237,7 +3135,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="7" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B30" s="10">
         <v>5.73</v>
@@ -3269,7 +3167,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B31" s="10">
         <v>5.64</v>
@@ -3301,7 +3199,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B32" s="10">
         <v>5.58</v>
@@ -3333,7 +3231,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="7" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B33" s="10">
         <v>5.49</v>
@@ -3365,7 +3263,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="7" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B34" s="10">
         <v>4.8499999999999996</v>
@@ -3397,7 +3295,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="7" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B35" s="10">
         <v>4.6500000000000004</v>
@@ -3429,7 +3327,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="7" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B36" s="10">
         <v>4.24</v>
@@ -3461,7 +3359,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="7" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B37" s="10">
         <v>3.77</v>
@@ -3536,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236F57A-CE0D-E64B-ABCF-EF2A3BE4C368}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3575,13 +3473,13 @@
         <v>100</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
@@ -3595,16 +3493,16 @@
         <v>200</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3615,16 +3513,16 @@
         <v>300</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3635,16 +3533,16 @@
         <v>400</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3655,16 +3553,16 @@
         <v>500</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3675,16 +3573,16 @@
         <v>600</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3695,16 +3593,16 @@
         <v>700</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3715,16 +3613,16 @@
         <v>800</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3735,16 +3633,16 @@
         <v>900</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3755,16 +3653,16 @@
         <v>1000</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3775,16 +3673,16 @@
         <v>1250</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3795,16 +3693,16 @@
         <v>1500</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3815,16 +3713,16 @@
         <v>1750</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3835,16 +3733,16 @@
         <v>2000</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3855,16 +3753,16 @@
         <v>2250</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3875,16 +3773,16 @@
         <v>2500</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3895,16 +3793,16 @@
         <v>3000</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3915,16 +3813,16 @@
         <v>3500</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3935,16 +3833,16 @@
         <v>4000</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3955,16 +3853,16 @@
         <v>4500</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3975,16 +3873,16 @@
         <v>5000</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3995,16 +3893,16 @@
         <v>5500</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4015,16 +3913,16 @@
         <v>6000</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4035,16 +3933,16 @@
         <v>6500</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4055,16 +3953,16 @@
         <v>7000</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4075,16 +3973,16 @@
         <v>7500</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4095,16 +3993,16 @@
         <v>8000</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4115,16 +4013,16 @@
         <v>8500</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4135,16 +4033,16 @@
         <v>9000</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4155,16 +4053,16 @@
         <v>9500</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4175,16 +4073,16 @@
         <v>10000</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4195,16 +4093,16 @@
         <v>12500</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4215,16 +4113,16 @@
         <v>15000</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4235,16 +4133,16 @@
         <v>17500</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4255,16 +4153,16 @@
         <v>20000</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4277,14 +4175,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a64f60d7-4f25-4f10-a72e-e516af347ede">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1a72ea57-77e5-4521-b397-cb7c8aeb51fd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4483,27 +4379,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a64f60d7-4f25-4f10-a72e-e516af347ede">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1a72ea57-77e5-4521-b397-cb7c8aeb51fd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4EAD64-E1C4-457D-A947-7A058C9FB373}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D0CF61-88F9-486E-9BD0-9BB7DB156C3D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1a72ea57-77e5-4521-b397-cb7c8aeb51fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a64f60d7-4f25-4f10-a72e-e516af347ede"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4528,9 +4417,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D0CF61-88F9-486E-9BD0-9BB7DB156C3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4EAD64-E1C4-457D-A947-7A058C9FB373}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1a72ea57-77e5-4521-b397-cb7c8aeb51fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a64f60d7-4f25-4f10-a72e-e516af347ede"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>